--- a/data/coded_segments/zm_3_5.xlsx
+++ b/data/coded_segments/zm_3_5.xlsx
@@ -1,30 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Whiting/Repositories/amr-db/data/coded_segments_rename/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D6B4514-8661-204D-9F36-C98A9913893F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3770" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3781" uniqueCount="1028">
   <si>
     <t>Color</t>
   </si>
@@ -3175,19 +3171,34 @@
     <t>6/8/18 13:03:00</t>
   </si>
   <si>
-    <t>23761</t>
-  </si>
-  <si>
-    <t>1: 230|734</t>
-  </si>
-  <si>
-    <t>1: 409|767</t>
+    <t>1: 120</t>
+  </si>
+  <si>
+    <t>1: 139</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Sonia</t>
+  </si>
+  <si>
+    <t>10/29/18 12:12:00</t>
+  </si>
+  <si>
+    <t>1: 2292</t>
+  </si>
+  <si>
+    <t>1: 2301</t>
+  </si>
+  <si>
+    <t>10/30/18 15:00:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3337,10 +3348,13 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3363,7 +3377,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3402,52 +3422,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="904875"/>
-          <a:ext cx="1219370" cy="1219370"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>376</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>3333750</xdr:colOff>
-      <xdr:row>377</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -3485,7 +3472,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -3497,7 +3484,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -3514,9 +3501,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -3544,14 +3531,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -3579,6 +3583,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3730,8 +3751,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M377"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M378"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3788,7 +3809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="84" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -3911,7 +3932,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -3952,7 +3973,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -3993,7 +4014,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -4977,7 +4998,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -5018,7 +5039,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>13</v>
       </c>
@@ -5098,7 +5119,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>13</v>
       </c>
@@ -7066,7 +7087,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>13</v>
       </c>
@@ -7107,7 +7128,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>13</v>
       </c>
@@ -7230,7 +7251,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" ht="120" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>13</v>
       </c>
@@ -7271,7 +7292,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>13</v>
       </c>
@@ -7804,7 +7825,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>13</v>
       </c>
@@ -8337,7 +8358,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
         <v>13</v>
       </c>
@@ -9649,7 +9670,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
         <v>13</v>
       </c>
@@ -9772,7 +9793,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
         <v>13</v>
       </c>
@@ -12109,7 +12130,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
         <v>13</v>
       </c>
@@ -12150,7 +12171,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="s">
         <v>13</v>
       </c>
@@ -12191,7 +12212,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="98" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" ht="105" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
         <v>13</v>
       </c>
@@ -12232,7 +12253,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
         <v>13</v>
       </c>
@@ -12273,7 +12294,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
         <v>13</v>
       </c>
@@ -12314,7 +12335,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
         <v>13</v>
       </c>
@@ -12355,7 +12376,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="s">
         <v>13</v>
       </c>
@@ -12437,7 +12458,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A213" s="6" t="s">
         <v>13</v>
       </c>
@@ -12519,7 +12540,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A215" s="6" t="s">
         <v>13</v>
       </c>
@@ -13216,7 +13237,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="232" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A232" s="6" t="s">
         <v>13</v>
       </c>
@@ -13380,7 +13401,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A236" s="6" t="s">
         <v>13</v>
       </c>
@@ -13462,7 +13483,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A238" s="6" t="s">
         <v>13</v>
       </c>
@@ -15348,7 +15369,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A284" s="6" t="s">
         <v>13</v>
       </c>
@@ -15635,7 +15656,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="291" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A291" s="6" t="s">
         <v>13</v>
       </c>
@@ -15676,7 +15697,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="292" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A292" s="6" t="s">
         <v>13</v>
       </c>
@@ -15717,7 +15738,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="98" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:13" ht="105" x14ac:dyDescent="0.2">
       <c r="A293" s="6" t="s">
         <v>13</v>
       </c>
@@ -15758,7 +15779,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="294" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A294" s="6" t="s">
         <v>13</v>
       </c>
@@ -15799,7 +15820,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="295" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A295" s="6" t="s">
         <v>13</v>
       </c>
@@ -15840,7 +15861,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A296" s="6" t="s">
         <v>13</v>
       </c>
@@ -16494,7 +16515,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="312" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A312" s="6" t="s">
         <v>13</v>
       </c>
@@ -16535,7 +16556,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="313" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A313" s="6" t="s">
         <v>13</v>
       </c>
@@ -16617,7 +16638,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="315" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A315" s="6" t="s">
         <v>13</v>
       </c>
@@ -16658,7 +16679,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="316" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A316" s="6" t="s">
         <v>13</v>
       </c>
@@ -16699,7 +16720,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="317" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A317" s="6" t="s">
         <v>13</v>
       </c>
@@ -16740,7 +16761,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="318" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A318" s="6" t="s">
         <v>13</v>
       </c>
@@ -16781,7 +16802,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="319" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A319" s="6" t="s">
         <v>13</v>
       </c>
@@ -16822,7 +16843,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="320" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A320" s="6" t="s">
         <v>13</v>
       </c>
@@ -17355,7 +17376,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="333" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A333" s="6" t="s">
         <v>13</v>
       </c>
@@ -17437,7 +17458,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="335" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A335" s="6" t="s">
         <v>13</v>
       </c>
@@ -17806,7 +17827,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="344" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A344" s="6" t="s">
         <v>13</v>
       </c>
@@ -17929,7 +17950,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="347" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A347" s="6" t="s">
         <v>13</v>
       </c>
@@ -18093,7 +18114,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="351" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A351" s="6" t="s">
         <v>13</v>
       </c>
@@ -18626,7 +18647,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="364" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A364" s="6" t="s">
         <v>13</v>
       </c>
@@ -18749,7 +18770,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="367" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A367" s="6" t="s">
         <v>13</v>
       </c>
@@ -18995,7 +19016,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="373" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A373" s="6" t="s">
         <v>13</v>
       </c>
@@ -19036,7 +19057,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="374" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A374" s="6" t="s">
         <v>13</v>
       </c>
@@ -19077,7 +19098,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="375" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A375" s="6" t="s">
         <v>13</v>
       </c>
@@ -19118,7 +19139,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="376" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A376" s="6" t="s">
         <v>13</v>
       </c>
@@ -19159,7 +19180,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="377" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" s="6" t="s">
         <v>13</v>
       </c>
@@ -19170,32 +19191,75 @@
         <v>15</v>
       </c>
       <c r="D377" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F377" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="E377" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F377" s="1" t="s">
+      <c r="G377" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="G377" s="1" t="s">
+      <c r="H377" s="3">
+        <v>0</v>
+      </c>
+      <c r="I377" s="2" t="s">
         <v>1022</v>
       </c>
-      <c r="H377" s="3">
-        <v>0</v>
-      </c>
-      <c r="I377" s="1"/>
       <c r="J377" s="3">
-        <v>13974</v>
+        <v>20</v>
       </c>
       <c r="K377" s="4">
-        <v>0.41362900000000002</v>
+        <v>6.1873999999999998E-2</v>
       </c>
       <c r="L377" s="1" t="s">
-        <v>576</v>
+        <v>1023</v>
       </c>
       <c r="M377" s="1" t="s">
-        <v>1019</v>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A378" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D378" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F378" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G378" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H378" s="3">
+        <v>0</v>
+      </c>
+      <c r="I378" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J378" s="3">
+        <v>10</v>
+      </c>
+      <c r="K378" s="4">
+        <v>3.0936999999999999E-2</v>
+      </c>
+      <c r="L378" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="M378" s="1" t="s">
+        <v>1027</v>
       </c>
     </row>
   </sheetData>

--- a/data/coded_segments/zm_3_5.xlsx
+++ b/data/coded_segments/zm_3_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D6B4514-8661-204D-9F36-C98A9913893F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74C3CD75-B02D-7A4A-9033-947D57BBE13E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3781" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3881" uniqueCount="1045">
   <si>
     <t>Color</t>
   </si>
@@ -3193,6 +3193,58 @@
   </si>
   <si>
     <t>10/30/18 15:00:00</t>
+  </si>
+  <si>
+    <t>1: 709</t>
+  </si>
+  <si>
+    <t>1: 722</t>
+  </si>
+  <si>
+    <t>.  
+pneumoniae</t>
+  </si>
+  <si>
+    <t>11/8/18 14:41:00</t>
+  </si>
+  <si>
+    <t>1: 740</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> H. influenzae</t>
+  </si>
+  <si>
+    <t>2: 2174</t>
+  </si>
+  <si>
+    <t>2: 2180</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>11/13/18 08:38:00</t>
+  </si>
+  <si>
+    <t>2: 2192</t>
+  </si>
+  <si>
+    <t>2: 2182</t>
+  </si>
+  <si>
+    <t>2: 2185</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2: 2198</t>
+  </si>
+  <si>
+    <t>2: 2201</t>
+  </si>
+  <si>
+    <t>2006</t>
   </si>
 </sst>
 </file>
@@ -3752,7 +3804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M378"/>
+  <dimension ref="A1:M388"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19262,6 +19314,416 @@
         <v>1027</v>
       </c>
     </row>
+    <row r="379" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A379" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D379" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F379" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G379" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H379" s="3">
+        <v>0</v>
+      </c>
+      <c r="I379" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J379" s="3">
+        <v>13</v>
+      </c>
+      <c r="K379" s="4">
+        <v>4.0217999999999997E-2</v>
+      </c>
+      <c r="L379" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="M379" s="1" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A380" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D380" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F380" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G380" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H380" s="3">
+        <v>0</v>
+      </c>
+      <c r="I380" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J380" s="3">
+        <v>13</v>
+      </c>
+      <c r="K380" s="4">
+        <v>4.0217999999999997E-2</v>
+      </c>
+      <c r="L380" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="M380" s="1" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A381" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D381" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F381" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G381" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H381" s="3">
+        <v>0</v>
+      </c>
+      <c r="I381" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J381" s="3">
+        <v>7</v>
+      </c>
+      <c r="K381" s="4">
+        <v>2.1656000000000002E-2</v>
+      </c>
+      <c r="L381" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="M381" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A382" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D382" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F382" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G382" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H382" s="3">
+        <v>0</v>
+      </c>
+      <c r="I382" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="J382" s="3">
+        <v>5</v>
+      </c>
+      <c r="K382" s="4">
+        <v>1.5468000000000001E-2</v>
+      </c>
+      <c r="L382" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="M382" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A383" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D383" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F383" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G383" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H383" s="3">
+        <v>0</v>
+      </c>
+      <c r="I383" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J383" s="3">
+        <v>4</v>
+      </c>
+      <c r="K383" s="4">
+        <v>1.2375000000000001E-2</v>
+      </c>
+      <c r="L383" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="M383" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A384" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D384" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F384" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G384" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H384" s="3">
+        <v>0</v>
+      </c>
+      <c r="I384" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="J384" s="3">
+        <v>4</v>
+      </c>
+      <c r="K384" s="4">
+        <v>1.2375000000000001E-2</v>
+      </c>
+      <c r="L384" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="M384" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A385" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D385" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F385" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G385" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H385" s="3">
+        <v>0</v>
+      </c>
+      <c r="I385" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="J385" s="3">
+        <v>4</v>
+      </c>
+      <c r="K385" s="4">
+        <v>1.2375000000000001E-2</v>
+      </c>
+      <c r="L385" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="M385" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="386" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A386" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D386" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F386" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G386" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H386" s="3">
+        <v>0</v>
+      </c>
+      <c r="I386" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="J386" s="3">
+        <v>5</v>
+      </c>
+      <c r="K386" s="4">
+        <v>1.5468000000000001E-2</v>
+      </c>
+      <c r="L386" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="M386" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A387" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D387" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F387" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G387" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H387" s="3">
+        <v>0</v>
+      </c>
+      <c r="I387" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J387" s="3">
+        <v>7</v>
+      </c>
+      <c r="K387" s="4">
+        <v>2.1656000000000002E-2</v>
+      </c>
+      <c r="L387" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="M387" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A388" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D388" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F388" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G388" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H388" s="3">
+        <v>0</v>
+      </c>
+      <c r="I388" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J388" s="3">
+        <v>4</v>
+      </c>
+      <c r="K388" s="4">
+        <v>1.2375000000000001E-2</v>
+      </c>
+      <c r="L388" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="M388" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/data/coded_segments/zm_3_5.xlsx
+++ b/data/coded_segments/zm_3_5.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\amr-db\data\coded_segments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36C8A0AA-066D-0C43-AD21-79BCB3817B45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4098" windowHeight="3672"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MAXQDA 12" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4171" uniqueCount="1051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4211" uniqueCount="1069">
   <si>
     <t>Color</t>
   </si>
@@ -92,7 +93,7 @@
     <t>zmatson</t>
   </si>
   <si>
-    <t>6/6/2018 12:45:00</t>
+    <t>06/06/2018 12:45:00</t>
   </si>
   <si>
     <t>18793</t>
@@ -110,7 +111,7 @@
     <t>To the Editor</t>
   </si>
   <si>
-    <t>6/6/2018 12:46:00</t>
+    <t>06/06/2018 12:46:00</t>
   </si>
   <si>
     <t>18832</t>
@@ -141,7 +142,7 @@
 pneumoniae and H. influenzae isolated from patients in the United Arab Emirates. </t>
   </si>
   <si>
-    <t>6/6/2018 12:47:00</t>
+    <t>06/06/2018 12:47:00</t>
   </si>
   <si>
     <t>18845</t>
@@ -158,7 +159,7 @@
 outbreak occurred 15 years ago in Korea. </t>
   </si>
   <si>
-    <t>6/6/2018 12:49:00</t>
+    <t>06/06/2018 12:49:00</t>
   </si>
   <si>
     <t>18852</t>
@@ -177,7 +178,7 @@
 has been detected in domain V of the 23S rRNA gene of clinical S. epidermidis</t>
   </si>
   <si>
-    <t>6/6/2018 12:53:00</t>
+    <t>06/06/2018 12:53:00</t>
   </si>
   <si>
     <t>Event year</t>
@@ -204,7 +205,7 @@
     <t>02</t>
   </si>
   <si>
-    <t>6/6/2018 12:54:00</t>
+    <t>06/06/2018 12:54:00</t>
   </si>
   <si>
     <t>Event day</t>
@@ -231,7 +232,7 @@
     <t>oxacillin</t>
   </si>
   <si>
-    <t>6/6/2018 12:59:00</t>
+    <t>06/06/2018 12:59:00</t>
   </si>
   <si>
     <t>4: 1388</t>
@@ -261,7 +262,7 @@
     <t>teicoplanin</t>
   </si>
   <si>
-    <t>6/6/2018 13:00:00</t>
+    <t>06/06/2018 13:00:00</t>
   </si>
   <si>
     <t>MIC</t>
@@ -309,7 +310,7 @@
     <t>D</t>
   </si>
   <si>
-    <t>6/6/2018 13:01:00</t>
+    <t>06/06/2018 13:01:00</t>
   </si>
   <si>
     <t>Bacteria:Binomial (genus species)</t>
@@ -336,7 +337,7 @@
     <t>Spain</t>
   </si>
   <si>
-    <t>6/6/2018 13:02:00</t>
+    <t>06/06/2018 13:02:00</t>
   </si>
   <si>
     <t>Location:City</t>
@@ -379,7 +380,7 @@
 patients (10 males, 11 females) in the ICU</t>
   </si>
   <si>
-    <t>6/6/2018 13:03:00</t>
+    <t>06/06/2018 13:03:00</t>
   </si>
   <si>
     <t>18971</t>
@@ -395,7 +396,7 @@
 medical records for 2000—2003. </t>
   </si>
   <si>
-    <t>6/6/2018 13:04:00</t>
+    <t>06/06/2018 13:04:00</t>
   </si>
   <si>
     <t>19250</t>
@@ -407,7 +408,7 @@
     <t>1: 566|636</t>
   </si>
   <si>
-    <t>6/6/2018 13:05:00</t>
+    <t>06/06/2018 13:05:00</t>
   </si>
   <si>
     <t>19267</t>
@@ -433,7 +434,7 @@
     <t xml:space="preserve">2002 </t>
   </si>
   <si>
-    <t>6/6/2018 13:09:00</t>
+    <t>06/06/2018 13:09:00</t>
   </si>
   <si>
     <t>4: 362</t>
@@ -487,7 +488,7 @@
     <t>levofloxacin</t>
   </si>
   <si>
-    <t>6/6/2018 13:10:00</t>
+    <t>06/06/2018 13:10:00</t>
   </si>
   <si>
     <t>5: 1288</t>
@@ -523,7 +524,7 @@
     <t>chen</t>
   </si>
   <si>
-    <t>1/30/2019 17:29:00</t>
+    <t>01/30/2019 17:29:00</t>
   </si>
   <si>
     <t>5: 319</t>
@@ -544,7 +545,7 @@
     <t xml:space="preserve">116 </t>
   </si>
   <si>
-    <t>6/6/2018 13:11:00</t>
+    <t>06/06/2018 13:11:00</t>
   </si>
   <si>
     <t>5: 334</t>
@@ -556,7 +557,7 @@
     <t>16</t>
   </si>
   <si>
-    <t>1/30/2019 17:30:00</t>
+    <t>01/30/2019 17:30:00</t>
   </si>
   <si>
     <t>5: 347</t>
@@ -574,7 +575,7 @@
     <t>18</t>
   </si>
   <si>
-    <t>6/6/2018 13:15:00</t>
+    <t>06/06/2018 13:15:00</t>
   </si>
   <si>
     <t>Rifampin</t>
@@ -598,7 +599,7 @@
     <t>32</t>
   </si>
   <si>
-    <t>1/30/2019 17:28:00</t>
+    <t>01/30/2019 17:28:00</t>
   </si>
   <si>
     <t>5: 388</t>
@@ -610,7 +611,7 @@
     <t xml:space="preserve">1024 </t>
   </si>
   <si>
-    <t>6/6/2018 13:18:00</t>
+    <t>06/06/2018 13:18:00</t>
   </si>
   <si>
     <t>5: 312</t>
@@ -619,7 +620,7 @@
     <t>5: 314</t>
   </si>
   <si>
-    <t>6/6/2018 13:19:00</t>
+    <t>06/06/2018 13:19:00</t>
   </si>
   <si>
     <t>E</t>
@@ -646,7 +647,7 @@
     <t>5: 362</t>
   </si>
   <si>
-    <t>6/6/2018 13:20:00</t>
+    <t>06/06/2018 13:20:00</t>
   </si>
   <si>
     <t>5: 262</t>
@@ -682,7 +683,7 @@
     <t>USA100</t>
   </si>
   <si>
-    <t>6/6/2018 13:21:00</t>
+    <t>06/06/2018 13:21:00</t>
   </si>
   <si>
     <t>1: 1876</t>
@@ -706,7 +707,7 @@
     <t>Michigan</t>
   </si>
   <si>
-    <t>6/6/2018 13:22:00</t>
+    <t>06/06/2018 13:22:00</t>
   </si>
   <si>
     <t>Age in years</t>
@@ -760,7 +761,7 @@
     <t>nfection cleared</t>
   </si>
   <si>
-    <t>6/6/2018 13:23:00</t>
+    <t>06/06/2018 13:23:00</t>
   </si>
   <si>
     <t>Patient:Comorbidities</t>
@@ -775,7 +776,7 @@
     <t>Diabetes</t>
   </si>
   <si>
-    <t>6/6/2018 13:24:00</t>
+    <t>06/06/2018 13:24:00</t>
   </si>
   <si>
     <t>3: 481</t>
@@ -804,7 +805,7 @@
 302:1569–71</t>
   </si>
   <si>
-    <t>6/6/2018 13:25:00</t>
+    <t>06/06/2018 13:25:00</t>
   </si>
   <si>
     <t>6: 5668</t>
@@ -845,7 +846,7 @@
     <t xml:space="preserve">This is the first report of ETEC O169:HUT in southern Thailand. </t>
   </si>
   <si>
-    <t>6/6/2018 13:33:00</t>
+    <t>06/06/2018 13:33:00</t>
   </si>
   <si>
     <t>Novel beta-lactam resistance mechanisms are being reported, not resistance itself</t>
@@ -867,7 +868,7 @@
 plasmid</t>
   </si>
   <si>
-    <t>6/6/2018 13:35:00</t>
+    <t>06/06/2018 13:35:00</t>
   </si>
   <si>
     <t>19615</t>
@@ -883,7 +884,7 @@
 E. coli isolate identified in Egypt is described herein</t>
   </si>
   <si>
-    <t>6/6/2018 13:38:00</t>
+    <t>06/06/2018 13:38:00</t>
   </si>
   <si>
     <t>1: 2487</t>
@@ -922,7 +923,7 @@
     <t>imipenem</t>
   </si>
   <si>
-    <t>6/6/2018 13:39:00</t>
+    <t>06/06/2018 13:39:00</t>
   </si>
   <si>
     <t>2: 6899</t>
@@ -1031,7 +1032,7 @@
     <t>norfloxacin</t>
   </si>
   <si>
-    <t>6/6/2018 13:40:00</t>
+    <t>06/06/2018 13:40:00</t>
   </si>
   <si>
     <t>2: 6976</t>
@@ -1061,7 +1062,7 @@
     <t>Minimum inhibitory concentration (mg/ml)</t>
   </si>
   <si>
-    <t>6/6/2018 13:41:00</t>
+    <t>06/06/2018 13:41:00</t>
   </si>
   <si>
     <t>2: 6749</t>
@@ -1079,7 +1080,7 @@
     <t>2: 6762</t>
   </si>
   <si>
-    <t>6/6/2018 13:42:00</t>
+    <t>06/06/2018 13:42:00</t>
   </si>
   <si>
     <t>2: 6776</t>
@@ -1121,7 +1122,7 @@
     <t>2: 6791</t>
   </si>
   <si>
-    <t>6/6/2018 13:43:00</t>
+    <t>06/06/2018 13:43:00</t>
   </si>
   <si>
     <t>2: 6796</t>
@@ -1169,7 +1170,7 @@
     <t>Escherichia coli</t>
   </si>
   <si>
-    <t>6/6/2018 13:44:00</t>
+    <t>06/06/2018 13:44:00</t>
   </si>
   <si>
     <t>Bacteria:Resistance Marker</t>
@@ -1202,7 +1203,7 @@
     <t>Egypt</t>
   </si>
   <si>
-    <t>6/6/2018 13:45:00</t>
+    <t>06/06/2018 13:45:00</t>
   </si>
   <si>
     <t>1: 1952</t>
@@ -1220,7 +1221,7 @@
     <t xml:space="preserve">65-year-old </t>
   </si>
   <si>
-    <t>6/6/2018 13:48:00</t>
+    <t>06/06/2018 13:48:00</t>
   </si>
   <si>
     <t>1: 1877</t>
@@ -1253,7 +1254,7 @@
     <t xml:space="preserve">recovered </t>
   </si>
   <si>
-    <t>6/6/2018 13:49:00</t>
+    <t>06/06/2018 13:49:00</t>
   </si>
   <si>
     <t>20126</t>
@@ -1270,7 +1271,7 @@
 States</t>
   </si>
   <si>
-    <t>6/6/2018 13:53:00</t>
+    <t>06/06/2018 13:53:00</t>
   </si>
   <si>
     <t>No individual case data presented</t>
@@ -1288,7 +1289,7 @@
     <t>3.1. Isolates and antimicrobial susceptibilities</t>
   </si>
   <si>
-    <t>6/6/2018 13:55:00</t>
+    <t>06/06/2018 13:55:00</t>
   </si>
   <si>
     <t>20263</t>
@@ -1300,7 +1301,7 @@
     <t>1: 638</t>
   </si>
   <si>
-    <t>6/6/2018 13:56:00</t>
+    <t>06/06/2018 13:56:00</t>
   </si>
   <si>
     <t>20331</t>
@@ -1316,7 +1317,7 @@
 ducing Gram-negative pathogens in Nepal</t>
   </si>
   <si>
-    <t>6/6/2018 13:58:00</t>
+    <t>06/06/2018 13:58:00</t>
   </si>
   <si>
     <t>1: 2186</t>
@@ -1328,7 +1329,7 @@
     <t xml:space="preserve">2012 </t>
   </si>
   <si>
-    <t>6/6/2018 13:59:00</t>
+    <t>06/06/2018 13:59:00</t>
   </si>
   <si>
     <t>2: 1712</t>
@@ -1340,7 +1341,7 @@
     <t xml:space="preserve">Ampicillin </t>
   </si>
   <si>
-    <t>6/6/2018 14:00:00</t>
+    <t>06/06/2018 14:00:00</t>
   </si>
   <si>
     <t>2: 1741</t>
@@ -1424,7 +1425,7 @@
     <t xml:space="preserve">Meropenem </t>
   </si>
   <si>
-    <t>6/6/2018 14:01:00</t>
+    <t>06/06/2018 14:01:00</t>
   </si>
   <si>
     <t>2: 2279</t>
@@ -1523,7 +1524,7 @@
     <t>Ampicillin</t>
   </si>
   <si>
-    <t>6/6/2018 14:02:00</t>
+    <t>06/06/2018 14:02:00</t>
   </si>
   <si>
     <t>2: 1760</t>
@@ -1583,7 +1584,7 @@
     <t>2: 2124</t>
   </si>
   <si>
-    <t>6/6/2018 14:03:00</t>
+    <t>06/06/2018 14:03:00</t>
   </si>
   <si>
     <t>2: 2175</t>
@@ -1640,7 +1641,7 @@
     <t>O</t>
   </si>
   <si>
-    <t>6/6/2018 14:04:00</t>
+    <t>06/06/2018 14:04:00</t>
   </si>
   <si>
     <t>1: 602</t>
@@ -1661,7 +1662,7 @@
     <t xml:space="preserve">ST101 </t>
   </si>
   <si>
-    <t>6/6/2018 14:05:00</t>
+    <t>06/06/2018 14:05:00</t>
   </si>
   <si>
     <t>1: 5</t>
@@ -1712,7 +1713,7 @@
 resistant in a patient with no history of colistin treatment.</t>
   </si>
   <si>
-    <t>6/6/2018 14:15:00</t>
+    <t>06/06/2018 14:15:00</t>
   </si>
   <si>
     <t>3: 1043</t>
@@ -1730,7 +1731,7 @@
 bacter species are still rare in Japan. </t>
   </si>
   <si>
-    <t>6/6/2018 14:16:00</t>
+    <t>06/06/2018 14:16:00</t>
   </si>
   <si>
     <t>20627</t>
@@ -1746,7 +1747,7 @@
 a community-associated MRSA lineage known to be circulating in the UK. </t>
   </si>
   <si>
-    <t>6/6/2018 14:20:00</t>
+    <t>06/06/2018 14:20:00</t>
   </si>
   <si>
     <t>20777</t>
@@ -1768,7 +1769,7 @@
     <t>Zach</t>
   </si>
   <si>
-    <t>6/8/2018 10:54:00</t>
+    <t>06/08/2018 10:54:00</t>
   </si>
   <si>
     <t>20942</t>
@@ -1784,7 +1785,7 @@
 resistance to clarithromycin.</t>
   </si>
   <si>
-    <t>6/8/2018 10:57:00</t>
+    <t>06/08/2018 10:57:00</t>
   </si>
   <si>
     <t>20985</t>
@@ -1818,7 +1819,7 @@
 potential effects on other flora.</t>
   </si>
   <si>
-    <t>6/8/2018 11:02:00</t>
+    <t>06/08/2018 11:02:00</t>
   </si>
   <si>
     <t>21136</t>
@@ -1833,7 +1834,7 @@
     <t>Letters to the Editor</t>
   </si>
   <si>
-    <t>6/8/2018 11:03:00</t>
+    <t>06/08/2018 11:03:00</t>
   </si>
   <si>
     <t>21348</t>
@@ -1850,7 +1851,7 @@
 nationally recommended first-line treatment cefixime.  </t>
   </si>
   <si>
-    <t>6/8/2018 11:18:00</t>
+    <t>06/08/2018 11:18:00</t>
   </si>
   <si>
     <t>1: 3418</t>
@@ -1889,7 +1890,7 @@
     <t>ciprofloxacin</t>
   </si>
   <si>
-    <t>6/8/2018 11:19:00</t>
+    <t>06/08/2018 11:19:00</t>
   </si>
   <si>
     <t>2: 871</t>
@@ -1901,7 +1902,7 @@
     <t xml:space="preserve">0.5 mg/L </t>
   </si>
   <si>
-    <t>6/8/2018 11:20:00</t>
+    <t>06/08/2018 11:20:00</t>
   </si>
   <si>
     <t>2: 1036</t>
@@ -1925,7 +1926,7 @@
     <t xml:space="preserve">Neisseria gonorrhoeae </t>
   </si>
   <si>
-    <t>6/8/2018 11:22:00</t>
+    <t>06/08/2018 11:22:00</t>
   </si>
   <si>
     <t>2: 3021</t>
@@ -1946,7 +1947,7 @@
     <t>Norway</t>
   </si>
   <si>
-    <t>6/8/2018 11:23:00</t>
+    <t>06/08/2018 11:23:00</t>
   </si>
   <si>
     <t>1: 3448</t>
@@ -1998,7 +1999,7 @@
     <t>symptoms had resolved</t>
   </si>
   <si>
-    <t>6/8/2018 11:24:00</t>
+    <t>06/08/2018 11:24:00</t>
   </si>
   <si>
     <t>All codes are for Case 1</t>
@@ -2030,7 +2031,7 @@
 ulcer.</t>
   </si>
   <si>
-    <t>6/8/2018 11:25:00</t>
+    <t>06/08/2018 11:25:00</t>
   </si>
   <si>
     <t>21546</t>
@@ -2042,7 +2043,7 @@
     <t>2: 6</t>
   </si>
   <si>
-    <t>6/8/2018 11:26:00</t>
+    <t>06/08/2018 11:26:00</t>
   </si>
   <si>
     <t>21824</t>
@@ -2061,7 +2062,7 @@
 hospital over a three-year period.</t>
   </si>
   <si>
-    <t>6/8/2018 11:33:00</t>
+    <t>06/08/2018 11:33:00</t>
   </si>
   <si>
     <t>5: 675</t>
@@ -2073,7 +2074,7 @@
     <t>2003</t>
   </si>
   <si>
-    <t>6/8/2018 11:34:00</t>
+    <t>06/08/2018 11:34:00</t>
   </si>
   <si>
     <t>March</t>
@@ -2088,7 +2089,7 @@
     <t>Mar</t>
   </si>
   <si>
-    <t>6/8/2018 11:36:00</t>
+    <t>06/08/2018 11:36:00</t>
   </si>
   <si>
     <t>5: 2460</t>
@@ -2100,7 +2101,7 @@
     <t>icarcillin</t>
   </si>
   <si>
-    <t>6/8/2018 11:38:00</t>
+    <t>06/08/2018 11:38:00</t>
   </si>
   <si>
     <t>5: 2502</t>
@@ -2127,7 +2128,7 @@
     <t>5: 2626</t>
   </si>
   <si>
-    <t>6/8/2018 11:39:00</t>
+    <t>06/08/2018 11:39:00</t>
   </si>
   <si>
     <t>5: 2657</t>
@@ -2151,7 +2152,7 @@
     <t>5: 2739</t>
   </si>
   <si>
-    <t>6/8/2018 11:40:00</t>
+    <t>06/08/2018 11:40:00</t>
   </si>
   <si>
     <t>5: 2768</t>
@@ -2190,7 +2191,7 @@
     <t>amikacin</t>
   </si>
   <si>
-    <t>6/8/2018 11:41:00</t>
+    <t>06/08/2018 11:41:00</t>
   </si>
   <si>
     <t>5: 2459</t>
@@ -2205,7 +2206,7 @@
     <t>ticarcillin/clavulanic acid</t>
   </si>
   <si>
-    <t>6/8/2018 11:42:00</t>
+    <t>06/08/2018 11:42:00</t>
   </si>
   <si>
     <t>5: 2562</t>
@@ -2214,7 +2215,7 @@
     <t>piperacillin/tazobactam</t>
   </si>
   <si>
-    <t>6/8/2018 11:43:00</t>
+    <t>06/08/2018 11:43:00</t>
   </si>
   <si>
     <t>5: 680</t>
@@ -2235,7 +2236,7 @@
     <t>1,024</t>
   </si>
   <si>
-    <t>6/8/2018 11:44:00</t>
+    <t>06/08/2018 11:44:00</t>
   </si>
   <si>
     <t>5: 700</t>
@@ -2280,7 +2281,7 @@
     <t>5: 692</t>
   </si>
   <si>
-    <t>6/8/2018 11:45:00</t>
+    <t>06/08/2018 11:45:00</t>
   </si>
   <si>
     <t>5: 707</t>
@@ -2317,7 +2318,7 @@
 aeruginosa</t>
   </si>
   <si>
-    <t>6/8/2018 11:46:00</t>
+    <t>06/08/2018 11:46:00</t>
   </si>
   <si>
     <t>MIC units are mg/L</t>
@@ -2353,7 +2354,7 @@
     <t>OXA-10</t>
   </si>
   <si>
-    <t>6/8/2018 11:47:00</t>
+    <t>06/08/2018 11:47:00</t>
   </si>
   <si>
     <t>2: 3172</t>
@@ -2365,7 +2366,7 @@
     <t>France</t>
   </si>
   <si>
-    <t>6/8/2018 11:48:00</t>
+    <t>06/08/2018 11:48:00</t>
   </si>
   <si>
     <t>3: 380</t>
@@ -2377,7 +2378,7 @@
     <t xml:space="preserve">Besançon </t>
   </si>
   <si>
-    <t>6/8/2018 11:49:00</t>
+    <t>06/08/2018 11:49:00</t>
   </si>
   <si>
     <t>3: 396</t>
@@ -2400,7 +2401,7 @@
 of patient infections.</t>
   </si>
   <si>
-    <t>6/8/2018 11:51:00</t>
+    <t>06/08/2018 11:51:00</t>
   </si>
   <si>
     <t>22179</t>
@@ -2416,7 +2417,7 @@
 associated with certain clinical characteristics in hospital settings.</t>
   </si>
   <si>
-    <t>6/8/2018 12:05:00</t>
+    <t>06/08/2018 12:05:00</t>
   </si>
   <si>
     <t>22306</t>
@@ -2434,7 +2435,7 @@
 in 2000 to 10% in 2010.</t>
   </si>
   <si>
-    <t>6/8/2018 12:07:00</t>
+    <t>06/08/2018 12:07:00</t>
   </si>
   <si>
     <t>22308</t>
@@ -2450,7 +2451,7 @@
 aureus (MRSA) recovered from a hospitalized patient in Canada over a period of 6 months. </t>
   </si>
   <si>
-    <t>6/8/2018 12:14:00</t>
+    <t>06/08/2018 12:14:00</t>
   </si>
   <si>
     <t>No indication that this is the first reported MDR case</t>
@@ -2470,7 +2471,7 @@
 resistant, in a patient with HIV infection.</t>
   </si>
   <si>
-    <t>6/8/2018 12:18:00</t>
+    <t>06/08/2018 12:18:00</t>
   </si>
   <si>
     <t>22668</t>
@@ -2486,7 +2487,7 @@
 among these 12 isolates, two were also resistant to azithromycin, and one was resistant to all other drugs tested.</t>
   </si>
   <si>
-    <t>6/8/2018 12:21:00</t>
+    <t>06/08/2018 12:21:00</t>
   </si>
   <si>
     <t>3: 5270</t>
@@ -2495,7 +2496,7 @@
     <t>3: 5283</t>
   </si>
   <si>
-    <t>6/8/2018 12:25:00</t>
+    <t>06/08/2018 12:25:00</t>
   </si>
   <si>
     <t>3: 5291</t>
@@ -2531,7 +2532,7 @@
     <t>kanamycin</t>
   </si>
   <si>
-    <t>6/8/2018 12:26:00</t>
+    <t>06/08/2018 12:26:00</t>
   </si>
   <si>
     <t>3: 5384</t>
@@ -2579,7 +2580,7 @@
     <t>4: 327|671</t>
   </si>
   <si>
-    <t>6/8/2018 12:27:00</t>
+    <t>06/08/2018 12:27:00</t>
   </si>
   <si>
     <t>1: 22</t>
@@ -2591,7 +2592,7 @@
     <t>Salmonella enterica</t>
   </si>
   <si>
-    <t>6/8/2018 12:28:00</t>
+    <t>06/08/2018 12:28:00</t>
   </si>
   <si>
     <t>1: 4619</t>
@@ -2603,7 +2604,7 @@
     <t>China</t>
   </si>
   <si>
-    <t>6/8/2018 12:29:00</t>
+    <t>06/08/2018 12:29:00</t>
   </si>
   <si>
     <t>All codes are for this strain</t>
@@ -2627,7 +2628,7 @@
     <t>Editorials</t>
   </si>
   <si>
-    <t>6/8/2018 12:30:00</t>
+    <t>06/08/2018 12:30:00</t>
   </si>
   <si>
     <t>23110</t>
@@ -2656,7 +2657,7 @@
 patients with diarrhoea in China were investigated.</t>
   </si>
   <si>
-    <t>6/8/2018 12:31:00</t>
+    <t>06/08/2018 12:31:00</t>
   </si>
   <si>
     <t>I don't consider intermediate resistance to be synoymous with resistance</t>
@@ -2676,7 +2677,7 @@
 vancomycin-intermediate S aureus infection.</t>
   </si>
   <si>
-    <t>6/8/2018 12:36:00</t>
+    <t>06/08/2018 12:36:00</t>
   </si>
   <si>
     <t>23204</t>
@@ -2685,7 +2686,7 @@
     <t>1: 19</t>
   </si>
   <si>
-    <t>6/8/2018 12:37:00</t>
+    <t>06/08/2018 12:37:00</t>
   </si>
   <si>
     <t>23213</t>
@@ -2702,7 +2703,7 @@
 the treatment of gonococcal urethritis or cervicitis in China.</t>
   </si>
   <si>
-    <t>6/8/2018 12:38:00</t>
+    <t>06/08/2018 12:38:00</t>
   </si>
   <si>
     <t>23410</t>
@@ -2720,7 +2721,7 @@
 reported from a hospital in West China in 2014.5</t>
   </si>
   <si>
-    <t>6/8/2018 12:43:00</t>
+    <t>06/08/2018 12:43:00</t>
   </si>
   <si>
     <t>2: 4708</t>
@@ -2747,7 +2748,7 @@
 and on a conjugative IncA/C plasmid.</t>
   </si>
   <si>
-    <t>6/8/2018 12:44:00</t>
+    <t>06/08/2018 12:44:00</t>
   </si>
   <si>
     <t>23491</t>
@@ -2763,7 +2764,7 @@
 S. maltophilia strains.</t>
   </si>
   <si>
-    <t>6/8/2018 12:49:00</t>
+    <t>06/08/2018 12:49:00</t>
   </si>
   <si>
     <t>2: 1464</t>
@@ -2775,7 +2776,7 @@
     <t>ampicillin-sulbactam</t>
   </si>
   <si>
-    <t>6/8/2018 12:52:00</t>
+    <t>06/08/2018 12:52:00</t>
   </si>
   <si>
     <t>2: 1503</t>
@@ -2859,7 +2860,7 @@
     <t>&gt;64–32 ����g/</t>
   </si>
   <si>
-    <t>6/8/2018 12:53:00</t>
+    <t>06/08/2018 12:53:00</t>
   </si>
   <si>
     <t>2: 1528</t>
@@ -2933,7 +2934,7 @@
     <t>n (64 ���</t>
   </si>
   <si>
-    <t>6/8/2018 12:54:00</t>
+    <t>06/08/2018 12:54:00</t>
   </si>
   <si>
     <t>2: 2095</t>
@@ -2961,7 +2962,7 @@
     <t>��g/mL), cipro</t>
   </si>
   <si>
-    <t>6/8/2018 12:55:00</t>
+    <t>06/08/2018 12:55:00</t>
   </si>
   <si>
     <t>2: 1709</t>
@@ -2976,7 +2977,7 @@
     <t>-tazobactam (25</t>
   </si>
   <si>
-    <t>6/8/2018 12:56:00</t>
+    <t>06/08/2018 12:56:00</t>
   </si>
   <si>
     <t>1: 2401</t>
@@ -3003,7 +3004,7 @@
     <t>1: 403</t>
   </si>
   <si>
-    <t>6/8/2018 12:57:00</t>
+    <t>06/08/2018 12:57:00</t>
   </si>
   <si>
     <t>7: 3289</t>
@@ -3034,7 +3035,7 @@
     <t>chronic renal insufficiency</t>
   </si>
   <si>
-    <t>6/8/2018 12:58:00</t>
+    <t>06/08/2018 12:58:00</t>
   </si>
   <si>
     <t>7: 3396</t>
@@ -3115,7 +3116,7 @@
 rapidly in mainland China [6].</t>
   </si>
   <si>
-    <t>6/8/2018 13:02:00</t>
+    <t>06/08/2018 13:02:00</t>
   </si>
   <si>
     <t>7: 2872</t>
@@ -3143,7 +3144,7 @@
 As a service to our customers we are providing this early version of the manuscript.</t>
   </si>
   <si>
-    <t>6/8/2018 13:03:00</t>
+    <t>06/08/2018 13:03:00</t>
   </si>
   <si>
     <t>1: 120</t>
@@ -3203,25 +3204,25 @@
     <t>2006</t>
   </si>
   <si>
-    <t>1/30/2019 17:32:00</t>
-  </si>
-  <si>
-    <t>1/30/2019 17:33:00</t>
-  </si>
-  <si>
-    <t>1/30/2019 17:34:00</t>
-  </si>
-  <si>
-    <t>1/30/2019 17:35:00</t>
-  </si>
-  <si>
-    <t>1/30/2019 17:36:00</t>
-  </si>
-  <si>
-    <t>1/30/2019 17:37:00</t>
-  </si>
-  <si>
-    <t>1/30/2019 17:38:00</t>
+    <t>01/30/2019 17:32:00</t>
+  </si>
+  <si>
+    <t>01/30/2019 17:33:00</t>
+  </si>
+  <si>
+    <t>01/30/2019 17:34:00</t>
+  </si>
+  <si>
+    <t>01/30/2019 17:35:00</t>
+  </si>
+  <si>
+    <t>01/30/2019 17:36:00</t>
+  </si>
+  <si>
+    <t>01/30/2019 17:37:00</t>
+  </si>
+  <si>
+    <t>01/30/2019 17:38:00</t>
   </si>
   <si>
     <t>1: 50</t>
@@ -3233,7 +3234,7 @@
     <t>Streptococcus pneumoniae</t>
   </si>
   <si>
-    <t>7/22/2019 16:34:00</t>
+    <t>07/22/2019 16:34:00</t>
   </si>
   <si>
     <t>1: 81</t>
@@ -3263,17 +3264,71 @@
     <t>dattaray</t>
   </si>
   <si>
-    <t>8/14/2019 12:50:57</t>
-  </si>
-  <si>
-    <t>8/14/2019 12:51:00</t>
+    <t>08/14/2019 12:50:57</t>
+  </si>
+  <si>
+    <t>08/14/2019 12:51:00</t>
+  </si>
+  <si>
+    <t>23761</t>
+  </si>
+  <si>
+    <t>1: 112</t>
+  </si>
+  <si>
+    <t>1: 124</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>08/21/2019 16:38:07</t>
+  </si>
+  <si>
+    <t>1: 205</t>
+  </si>
+  <si>
+    <t>1: 225</t>
+  </si>
+  <si>
+    <t>Klebsiella pneumoniae</t>
+  </si>
+  <si>
+    <t>08/21/2019 16:38:15</t>
+  </si>
+  <si>
+    <t>1: 5627</t>
+  </si>
+  <si>
+    <t>1: 5630</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>08/21/2019 16:38:35</t>
+  </si>
+  <si>
+    <t>1: 182</t>
+  </si>
+  <si>
+    <t>1: 191</t>
+  </si>
+  <si>
+    <t>carbapenem</t>
+  </si>
+  <si>
+    <t>08/21/2019 16:40:20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -3454,7 +3509,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3487,13 +3548,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>306</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3537,7 +3604,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -3549,7 +3616,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -3596,6 +3663,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3631,6 +3715,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3782,24 +3883,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M417"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M421"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.68359375" customWidth="1"/>
-    <col min="2" max="2" width="50.68359375" customWidth="1"/>
-    <col min="3" max="4" width="22.68359375" customWidth="1"/>
-    <col min="5" max="5" width="50.68359375" customWidth="1"/>
-    <col min="6" max="8" width="22.68359375" customWidth="1"/>
-    <col min="9" max="9" width="50.68359375" customWidth="1"/>
-    <col min="10" max="10" width="7.68359375" customWidth="1"/>
-    <col min="11" max="13" width="22.68359375" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" customWidth="1"/>
+    <col min="3" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="50.6640625" customWidth="1"/>
+    <col min="6" max="8" width="22.6640625" customWidth="1"/>
+    <col min="9" max="9" width="50.6640625" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
+    <col min="11" max="13" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3840,7 +3941,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="77.400000000000006">
+    <row r="2" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -3881,7 +3982,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.6">
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -3922,7 +4023,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.6">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -3963,7 +4064,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="38.700000000000003">
+    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -4004,7 +4105,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="51.6">
+    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -4045,7 +4146,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="38.700000000000003">
+    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -4086,7 +4187,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.6">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -4127,7 +4228,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.6">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -4168,7 +4269,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.6">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
@@ -4209,7 +4310,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.6">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -4250,7 +4351,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.6">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -4291,7 +4392,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.6">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -4332,7 +4433,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.6">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -4373,7 +4474,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.6">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -4414,7 +4515,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.6">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
@@ -4455,7 +4556,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.6">
+    <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
@@ -4496,7 +4597,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.6">
+    <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
@@ -4537,7 +4638,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.6">
+    <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
@@ -4578,7 +4679,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.6">
+    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
@@ -4619,7 +4720,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.6">
+    <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>13</v>
       </c>
@@ -4660,7 +4761,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.6">
+    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>13</v>
       </c>
@@ -4701,7 +4802,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.6">
+    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -4742,7 +4843,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.6">
+    <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>13</v>
       </c>
@@ -4783,7 +4884,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.6">
+    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>13</v>
       </c>
@@ -4824,7 +4925,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.6">
+    <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>13</v>
       </c>
@@ -4865,7 +4966,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.6">
+    <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>13</v>
       </c>
@@ -4906,7 +5007,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.6">
+    <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>13</v>
       </c>
@@ -4947,7 +5048,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.6">
+    <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>13</v>
       </c>
@@ -4988,7 +5089,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.6">
+    <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>13</v>
       </c>
@@ -5029,7 +5130,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="25.8">
+    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -5070,7 +5171,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="38.700000000000003">
+    <row r="32" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>13</v>
       </c>
@@ -5111,7 +5212,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="18.75" customHeight="1">
+    <row r="33" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>13</v>
       </c>
@@ -5150,7 +5251,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="64.5">
+    <row r="34" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>13</v>
       </c>
@@ -5191,7 +5292,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15.6">
+    <row r="35" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>13</v>
       </c>
@@ -5232,7 +5333,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.6">
+    <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>13</v>
       </c>
@@ -5273,7 +5374,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15.6">
+    <row r="37" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>13</v>
       </c>
@@ -5314,7 +5415,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15.6">
+    <row r="38" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>13</v>
       </c>
@@ -5355,7 +5456,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15.6">
+    <row r="39" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -5396,7 +5497,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15.6">
+    <row r="40" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>13</v>
       </c>
@@ -5437,7 +5538,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.6">
+    <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>13</v>
       </c>
@@ -5478,7 +5579,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.6">
+    <row r="42" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>13</v>
       </c>
@@ -5519,7 +5620,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.6">
+    <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>13</v>
       </c>
@@ -5560,7 +5661,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.6">
+    <row r="44" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>13</v>
       </c>
@@ -5601,7 +5702,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.6">
+    <row r="45" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>13</v>
       </c>
@@ -5642,7 +5743,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15.6">
+    <row r="46" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>13</v>
       </c>
@@ -5683,7 +5784,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.6">
+    <row r="47" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>13</v>
       </c>
@@ -5724,7 +5825,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.6">
+    <row r="48" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>13</v>
       </c>
@@ -5765,7 +5866,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15.6">
+    <row r="49" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>13</v>
       </c>
@@ -5806,7 +5907,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.6">
+    <row r="50" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>13</v>
       </c>
@@ -5847,7 +5948,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15.6">
+    <row r="51" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>13</v>
       </c>
@@ -5888,7 +5989,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15.6">
+    <row r="52" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>13</v>
       </c>
@@ -5929,7 +6030,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15.6">
+    <row r="53" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>13</v>
       </c>
@@ -5970,7 +6071,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15.6">
+    <row r="54" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>13</v>
       </c>
@@ -6011,7 +6112,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15.6">
+    <row r="55" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>13</v>
       </c>
@@ -6052,7 +6153,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15.6">
+    <row r="56" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>13</v>
       </c>
@@ -6093,7 +6194,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15.6">
+    <row r="57" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>13</v>
       </c>
@@ -6134,7 +6235,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15.6">
+    <row r="58" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>13</v>
       </c>
@@ -6175,7 +6276,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15.6">
+    <row r="59" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>13</v>
       </c>
@@ -6216,7 +6317,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15.6">
+    <row r="60" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>13</v>
       </c>
@@ -6257,7 +6358,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15.6">
+    <row r="61" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>13</v>
       </c>
@@ -6298,7 +6399,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.6">
+    <row r="62" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>13</v>
       </c>
@@ -6339,7 +6440,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.6">
+    <row r="63" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>13</v>
       </c>
@@ -6380,7 +6481,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.6">
+    <row r="64" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>13</v>
       </c>
@@ -6421,7 +6522,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.6">
+    <row r="65" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>13</v>
       </c>
@@ -6462,7 +6563,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15.6">
+    <row r="66" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>13</v>
       </c>
@@ -6503,7 +6604,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15.6">
+    <row r="67" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>13</v>
       </c>
@@ -6544,7 +6645,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15.6">
+    <row r="68" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>13</v>
       </c>
@@ -6585,7 +6686,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15.6">
+    <row r="69" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>13</v>
       </c>
@@ -6626,7 +6727,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15.6">
+    <row r="70" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>13</v>
       </c>
@@ -6667,7 +6768,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15.6">
+    <row r="71" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>13</v>
       </c>
@@ -6708,7 +6809,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15.6">
+    <row r="72" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>13</v>
       </c>
@@ -6749,7 +6850,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15.6">
+    <row r="73" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>13</v>
       </c>
@@ -6790,7 +6891,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15.6">
+    <row r="74" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>13</v>
       </c>
@@ -6831,7 +6932,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15.6">
+    <row r="75" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>13</v>
       </c>
@@ -6872,7 +6973,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15.6">
+    <row r="76" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>13</v>
       </c>
@@ -6913,7 +7014,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15.6">
+    <row r="77" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>13</v>
       </c>
@@ -6954,7 +7055,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15.6">
+    <row r="78" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>13</v>
       </c>
@@ -6995,7 +7096,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15.6">
+    <row r="79" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>13</v>
       </c>
@@ -7036,7 +7137,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="15.6">
+    <row r="80" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>13</v>
       </c>
@@ -7077,7 +7178,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="15.6">
+    <row r="81" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>13</v>
       </c>
@@ -7118,7 +7219,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="51.6">
+    <row r="82" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>13</v>
       </c>
@@ -7159,7 +7260,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="51.6">
+    <row r="83" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>13</v>
       </c>
@@ -7200,7 +7301,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="15.6">
+    <row r="84" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>13</v>
       </c>
@@ -7241,7 +7342,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="15.6">
+    <row r="85" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>13</v>
       </c>
@@ -7282,7 +7383,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="103.2">
+    <row r="86" spans="1:13" ht="120" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>13</v>
       </c>
@@ -7323,7 +7424,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="25.8">
+    <row r="87" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>13</v>
       </c>
@@ -7364,7 +7465,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="15.6">
+    <row r="88" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>13</v>
       </c>
@@ -7405,7 +7506,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="15.6">
+    <row r="89" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>13</v>
       </c>
@@ -7446,7 +7547,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15.6">
+    <row r="90" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>13</v>
       </c>
@@ -7487,7 +7588,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="15.6">
+    <row r="91" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>13</v>
       </c>
@@ -7528,7 +7629,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="15.6">
+    <row r="92" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>13</v>
       </c>
@@ -7569,7 +7670,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="15.6">
+    <row r="93" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>13</v>
       </c>
@@ -7610,7 +7711,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="15.6">
+    <row r="94" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
         <v>13</v>
       </c>
@@ -7651,7 +7752,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="15.6">
+    <row r="95" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>13</v>
       </c>
@@ -7692,7 +7793,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15.6">
+    <row r="96" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>13</v>
       </c>
@@ -7733,7 +7834,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="15.6">
+    <row r="97" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>13</v>
       </c>
@@ -7774,7 +7875,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15.6">
+    <row r="98" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>13</v>
       </c>
@@ -7815,7 +7916,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="15.6">
+    <row r="99" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>13</v>
       </c>
@@ -7856,7 +7957,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="25.8">
+    <row r="100" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>13</v>
       </c>
@@ -7897,7 +7998,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="15.6">
+    <row r="101" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>13</v>
       </c>
@@ -7938,7 +8039,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="15.6">
+    <row r="102" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>13</v>
       </c>
@@ -7979,7 +8080,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="15.6">
+    <row r="103" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>13</v>
       </c>
@@ -8020,7 +8121,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="15.6">
+    <row r="104" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>13</v>
       </c>
@@ -8061,7 +8162,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="15.6">
+    <row r="105" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>13</v>
       </c>
@@ -8102,7 +8203,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="15.6">
+    <row r="106" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>13</v>
       </c>
@@ -8143,7 +8244,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="15.6">
+    <row r="107" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>13</v>
       </c>
@@ -8184,7 +8285,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="15.6">
+    <row r="108" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>13</v>
       </c>
@@ -8225,7 +8326,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="15.6">
+    <row r="109" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>13</v>
       </c>
@@ -8266,7 +8367,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="15.6">
+    <row r="110" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
         <v>13</v>
       </c>
@@ -8307,7 +8408,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="15.6">
+    <row r="111" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
         <v>13</v>
       </c>
@@ -8348,7 +8449,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="15.6">
+    <row r="112" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>13</v>
       </c>
@@ -8389,7 +8490,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="25.8">
+    <row r="113" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
         <v>13</v>
       </c>
@@ -8430,7 +8531,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="15.6">
+    <row r="114" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
         <v>13</v>
       </c>
@@ -8471,7 +8572,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="15.6">
+    <row r="115" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
         <v>13</v>
       </c>
@@ -8512,7 +8613,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="15.6">
+    <row r="116" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
         <v>13</v>
       </c>
@@ -8553,7 +8654,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="15.6">
+    <row r="117" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
         <v>13</v>
       </c>
@@ -8594,7 +8695,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="15.6">
+    <row r="118" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
         <v>13</v>
       </c>
@@ -8635,7 +8736,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="15.6">
+    <row r="119" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
@@ -8676,7 +8777,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="15.6">
+    <row r="120" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
         <v>13</v>
       </c>
@@ -8717,7 +8818,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="15.6">
+    <row r="121" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
         <v>13</v>
       </c>
@@ -8758,7 +8859,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="15.6">
+    <row r="122" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>13</v>
       </c>
@@ -8799,7 +8900,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="15.6">
+    <row r="123" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>13</v>
       </c>
@@ -8840,7 +8941,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="15.6">
+    <row r="124" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
         <v>13</v>
       </c>
@@ -8881,7 +8982,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="15.6">
+    <row r="125" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
         <v>13</v>
       </c>
@@ -8922,7 +9023,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="15.6">
+    <row r="126" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
         <v>13</v>
       </c>
@@ -8963,7 +9064,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="15.6">
+    <row r="127" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
@@ -9004,7 +9105,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="15.6">
+    <row r="128" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
         <v>13</v>
       </c>
@@ -9045,7 +9146,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="15.6">
+    <row r="129" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
         <v>13</v>
       </c>
@@ -9086,7 +9187,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="15.6">
+    <row r="130" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
         <v>13</v>
       </c>
@@ -9127,7 +9228,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="15.6">
+    <row r="131" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
         <v>13</v>
       </c>
@@ -9168,7 +9269,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="15.6">
+    <row r="132" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
         <v>13</v>
       </c>
@@ -9209,7 +9310,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="15.6">
+    <row r="133" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
         <v>13</v>
       </c>
@@ -9250,7 +9351,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="15.6">
+    <row r="134" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
         <v>13</v>
       </c>
@@ -9291,7 +9392,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="15.6">
+    <row r="135" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
         <v>13</v>
       </c>
@@ -9332,7 +9433,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="15.6">
+    <row r="136" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
         <v>13</v>
       </c>
@@ -9373,7 +9474,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="15.6">
+    <row r="137" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
         <v>13</v>
       </c>
@@ -9414,7 +9515,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="15.6">
+    <row r="138" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
         <v>13</v>
       </c>
@@ -9455,7 +9556,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="15.6">
+    <row r="139" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
         <v>13</v>
       </c>
@@ -9496,7 +9597,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="15.6">
+    <row r="140" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
         <v>13</v>
       </c>
@@ -9537,7 +9638,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="15.6">
+    <row r="141" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
         <v>13</v>
       </c>
@@ -9578,7 +9679,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="15.6">
+    <row r="142" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
         <v>13</v>
       </c>
@@ -9619,7 +9720,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="15.6">
+    <row r="143" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
         <v>13</v>
       </c>
@@ -9660,7 +9761,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="15.6">
+    <row r="144" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
         <v>13</v>
       </c>
@@ -9701,7 +9802,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="51.6">
+    <row r="145" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
         <v>13</v>
       </c>
@@ -9742,7 +9843,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="15.6">
+    <row r="146" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
         <v>13</v>
       </c>
@@ -9783,7 +9884,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="15.6">
+    <row r="147" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
         <v>13</v>
       </c>
@@ -9824,7 +9925,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="25.8">
+    <row r="148" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
         <v>13</v>
       </c>
@@ -9865,7 +9966,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="15.6">
+    <row r="149" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
         <v>13</v>
       </c>
@@ -9906,7 +10007,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="15.6">
+    <row r="150" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
         <v>13</v>
       </c>
@@ -9947,7 +10048,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="15.6">
+    <row r="151" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
         <v>13</v>
       </c>
@@ -9988,7 +10089,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="15.6">
+    <row r="152" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
         <v>13</v>
       </c>
@@ -10029,7 +10130,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="15.6">
+    <row r="153" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
         <v>13</v>
       </c>
@@ -10070,7 +10171,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="15.6">
+    <row r="154" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
         <v>13</v>
       </c>
@@ -10111,7 +10212,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="15.6">
+    <row r="155" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
         <v>13</v>
       </c>
@@ -10152,7 +10253,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="15.6">
+    <row r="156" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
         <v>13</v>
       </c>
@@ -10193,7 +10294,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="15.6">
+    <row r="157" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
         <v>13</v>
       </c>
@@ -10234,7 +10335,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="15.6">
+    <row r="158" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
         <v>13</v>
       </c>
@@ -10275,7 +10376,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="15.6">
+    <row r="159" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
         <v>13</v>
       </c>
@@ -10316,7 +10417,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="15.6">
+    <row r="160" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
         <v>13</v>
       </c>
@@ -10357,7 +10458,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="15.6">
+    <row r="161" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
         <v>13</v>
       </c>
@@ -10398,7 +10499,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="15.6">
+    <row r="162" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
         <v>13</v>
       </c>
@@ -10439,7 +10540,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="15.6">
+    <row r="163" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
         <v>13</v>
       </c>
@@ -10480,7 +10581,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="15.6">
+    <row r="164" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
         <v>13</v>
       </c>
@@ -10521,7 +10622,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="15.6">
+    <row r="165" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
         <v>13</v>
       </c>
@@ -10562,7 +10663,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="15.6">
+    <row r="166" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
         <v>13</v>
       </c>
@@ -10603,7 +10704,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="15.6">
+    <row r="167" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
         <v>13</v>
       </c>
@@ -10644,7 +10745,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="15.6">
+    <row r="168" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
         <v>13</v>
       </c>
@@ -10685,7 +10786,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="15.6">
+    <row r="169" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
         <v>13</v>
       </c>
@@ -10726,7 +10827,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="15.6">
+    <row r="170" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
         <v>13</v>
       </c>
@@ -10767,7 +10868,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="15.6">
+    <row r="171" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
         <v>13</v>
       </c>
@@ -10808,7 +10909,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="15.6">
+    <row r="172" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
         <v>13</v>
       </c>
@@ -10849,7 +10950,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="15.6">
+    <row r="173" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
         <v>13</v>
       </c>
@@ -10890,7 +10991,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="15.6">
+    <row r="174" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
         <v>13</v>
       </c>
@@ -10931,7 +11032,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="15.6">
+    <row r="175" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
         <v>13</v>
       </c>
@@ -10972,7 +11073,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="15.6">
+    <row r="176" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
         <v>13</v>
       </c>
@@ -11013,7 +11114,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="15.6">
+    <row r="177" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="6" t="s">
         <v>13</v>
       </c>
@@ -11054,7 +11155,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="15.6">
+    <row r="178" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="6" t="s">
         <v>13</v>
       </c>
@@ -11095,7 +11196,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="15.6">
+    <row r="179" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="6" t="s">
         <v>13</v>
       </c>
@@ -11136,7 +11237,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="15.6">
+    <row r="180" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="6" t="s">
         <v>13</v>
       </c>
@@ -11177,7 +11278,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="15.6">
+    <row r="181" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
         <v>13</v>
       </c>
@@ -11218,7 +11319,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="15.6">
+    <row r="182" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
         <v>13</v>
       </c>
@@ -11259,7 +11360,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="15.6">
+    <row r="183" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="6" t="s">
         <v>13</v>
       </c>
@@ -11300,7 +11401,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="15.6">
+    <row r="184" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
         <v>13</v>
       </c>
@@ -11341,7 +11442,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="15.6">
+    <row r="185" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
         <v>13</v>
       </c>
@@ -11382,7 +11483,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="15.6">
+    <row r="186" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="6" t="s">
         <v>13</v>
       </c>
@@ -11423,7 +11524,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="15.6">
+    <row r="187" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
         <v>13</v>
       </c>
@@ -11464,7 +11565,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="15.6">
+    <row r="188" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="6" t="s">
         <v>13</v>
       </c>
@@ -11505,7 +11606,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="15.6">
+    <row r="189" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
         <v>13</v>
       </c>
@@ -11546,7 +11647,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="15.6">
+    <row r="190" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="6" t="s">
         <v>13</v>
       </c>
@@ -11587,7 +11688,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="15.6">
+    <row r="191" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="6" t="s">
         <v>13</v>
       </c>
@@ -11628,7 +11729,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="15.6">
+    <row r="192" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="s">
         <v>13</v>
       </c>
@@ -11669,7 +11770,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="15.6">
+    <row r="193" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="6" t="s">
         <v>13</v>
       </c>
@@ -11710,7 +11811,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="15.6">
+    <row r="194" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="6" t="s">
         <v>13</v>
       </c>
@@ -11751,7 +11852,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="15.6">
+    <row r="195" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="6" t="s">
         <v>13</v>
       </c>
@@ -11792,7 +11893,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="15.6">
+    <row r="196" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="6" t="s">
         <v>13</v>
       </c>
@@ -11833,7 +11934,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="15.6">
+    <row r="197" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
         <v>13</v>
       </c>
@@ -11874,7 +11975,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="15.6">
+    <row r="198" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
         <v>13</v>
       </c>
@@ -11915,7 +12016,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="15.6">
+    <row r="199" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
         <v>13</v>
       </c>
@@ -11956,7 +12057,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="15.6">
+    <row r="200" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
         <v>13</v>
       </c>
@@ -11997,7 +12098,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="15.6">
+    <row r="201" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
         <v>13</v>
       </c>
@@ -12038,7 +12139,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="15.6">
+    <row r="202" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
         <v>13</v>
       </c>
@@ -12079,7 +12180,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="15.6">
+    <row r="203" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
         <v>13</v>
       </c>
@@ -12120,7 +12221,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="15.6">
+    <row r="204" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
         <v>13</v>
       </c>
@@ -12161,7 +12262,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="25.8">
+    <row r="205" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
         <v>13</v>
       </c>
@@ -12202,7 +12303,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="38.700000000000003">
+    <row r="206" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="s">
         <v>13</v>
       </c>
@@ -12243,7 +12344,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="90.3">
+    <row r="207" spans="1:13" ht="105" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
         <v>13</v>
       </c>
@@ -12284,7 +12385,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="51.6">
+    <row r="208" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
         <v>13</v>
       </c>
@@ -12325,7 +12426,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="64.5">
+    <row r="209" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
         <v>13</v>
       </c>
@@ -12366,7 +12467,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="64.5">
+    <row r="210" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
         <v>13</v>
       </c>
@@ -12407,7 +12508,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="25.8">
+    <row r="211" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="s">
         <v>13</v>
       </c>
@@ -12448,7 +12549,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="15.6">
+    <row r="212" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="6" t="s">
         <v>13</v>
       </c>
@@ -12489,7 +12590,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="64.5">
+    <row r="213" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A213" s="6" t="s">
         <v>13</v>
       </c>
@@ -12530,7 +12631,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="15.6">
+    <row r="214" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
         <v>13</v>
       </c>
@@ -12571,7 +12672,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="38.700000000000003">
+    <row r="215" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A215" s="6" t="s">
         <v>13</v>
       </c>
@@ -12612,7 +12713,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="15.6">
+    <row r="216" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="6" t="s">
         <v>13</v>
       </c>
@@ -12653,7 +12754,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="15.6">
+    <row r="217" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
         <v>13</v>
       </c>
@@ -12694,7 +12795,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="15.6">
+    <row r="218" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
         <v>13</v>
       </c>
@@ -12735,7 +12836,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="15.6">
+    <row r="219" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="6" t="s">
         <v>13</v>
       </c>
@@ -12776,7 +12877,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="15.6">
+    <row r="220" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="6" t="s">
         <v>13</v>
       </c>
@@ -12817,7 +12918,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="15.6">
+    <row r="221" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="6" t="s">
         <v>13</v>
       </c>
@@ -12858,7 +12959,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="15.6">
+    <row r="222" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="6" t="s">
         <v>13</v>
       </c>
@@ -12899,7 +13000,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="15.6">
+    <row r="223" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
         <v>13</v>
       </c>
@@ -12940,7 +13041,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="15.6">
+    <row r="224" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="6" t="s">
         <v>13</v>
       </c>
@@ -12981,7 +13082,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="15.6">
+    <row r="225" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="s">
         <v>13</v>
       </c>
@@ -13022,7 +13123,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="15.6">
+    <row r="226" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="6" t="s">
         <v>13</v>
       </c>
@@ -13063,7 +13164,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="15.6">
+    <row r="227" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
         <v>13</v>
       </c>
@@ -13104,7 +13205,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="15.6">
+    <row r="228" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="6" t="s">
         <v>13</v>
       </c>
@@ -13145,7 +13246,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="15.6">
+    <row r="229" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="6" t="s">
         <v>13</v>
       </c>
@@ -13186,7 +13287,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="15.6">
+    <row r="230" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="6" t="s">
         <v>13</v>
       </c>
@@ -13227,7 +13328,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="15.6">
+    <row r="231" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="s">
         <v>13</v>
       </c>
@@ -13268,7 +13369,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="232" spans="1:13" ht="25.8">
+    <row r="232" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A232" s="6" t="s">
         <v>13</v>
       </c>
@@ -13309,7 +13410,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="15.6">
+    <row r="233" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="6" t="s">
         <v>13</v>
       </c>
@@ -13350,7 +13451,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="15.6">
+    <row r="234" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
         <v>13</v>
       </c>
@@ -13391,7 +13492,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="15.6">
+    <row r="235" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
         <v>13</v>
       </c>
@@ -13432,7 +13533,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="38.700000000000003">
+    <row r="236" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A236" s="6" t="s">
         <v>13</v>
       </c>
@@ -13473,7 +13574,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="15.6">
+    <row r="237" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="6" t="s">
         <v>13</v>
       </c>
@@ -13514,7 +13615,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="64.5">
+    <row r="238" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A238" s="6" t="s">
         <v>13</v>
       </c>
@@ -13555,7 +13656,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="15.6">
+    <row r="239" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="6" t="s">
         <v>13</v>
       </c>
@@ -13596,7 +13697,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="15.6">
+    <row r="240" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="6" t="s">
         <v>13</v>
       </c>
@@ -13637,7 +13738,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="15.6">
+    <row r="241" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="6" t="s">
         <v>13</v>
       </c>
@@ -13678,7 +13779,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="15.6">
+    <row r="242" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="6" t="s">
         <v>13</v>
       </c>
@@ -13719,7 +13820,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="243" spans="1:13" ht="15.6">
+    <row r="243" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="6" t="s">
         <v>13</v>
       </c>
@@ -13760,7 +13861,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="244" spans="1:13" ht="15.6">
+    <row r="244" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="6" t="s">
         <v>13</v>
       </c>
@@ -13801,7 +13902,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="15.6">
+    <row r="245" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="6" t="s">
         <v>13</v>
       </c>
@@ -13842,7 +13943,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="15.6">
+    <row r="246" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="6" t="s">
         <v>13</v>
       </c>
@@ -13883,7 +13984,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="247" spans="1:13" ht="15.6">
+    <row r="247" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="6" t="s">
         <v>13</v>
       </c>
@@ -13924,7 +14025,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="15.6">
+    <row r="248" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="6" t="s">
         <v>13</v>
       </c>
@@ -13965,7 +14066,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="15.6">
+    <row r="249" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="6" t="s">
         <v>13</v>
       </c>
@@ -14006,7 +14107,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="250" spans="1:13" ht="15.6">
+    <row r="250" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="6" t="s">
         <v>13</v>
       </c>
@@ -14047,7 +14148,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="15.6">
+    <row r="251" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="6" t="s">
         <v>13</v>
       </c>
@@ -14088,7 +14189,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="15.6">
+    <row r="252" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="6" t="s">
         <v>13</v>
       </c>
@@ -14129,7 +14230,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="253" spans="1:13" ht="15.6">
+    <row r="253" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="6" t="s">
         <v>13</v>
       </c>
@@ -14170,7 +14271,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="15.6">
+    <row r="254" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="6" t="s">
         <v>13</v>
       </c>
@@ -14211,7 +14312,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="15.6">
+    <row r="255" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="6" t="s">
         <v>13</v>
       </c>
@@ -14252,7 +14353,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="256" spans="1:13" ht="15.6">
+    <row r="256" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="6" t="s">
         <v>13</v>
       </c>
@@ -14293,7 +14394,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="15.6">
+    <row r="257" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="6" t="s">
         <v>13</v>
       </c>
@@ -14334,7 +14435,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="258" spans="1:13" ht="15.6">
+    <row r="258" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="6" t="s">
         <v>13</v>
       </c>
@@ -14375,7 +14476,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="259" spans="1:13" ht="15.6">
+    <row r="259" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="6" t="s">
         <v>13</v>
       </c>
@@ -14416,7 +14517,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="15.6">
+    <row r="260" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="6" t="s">
         <v>13</v>
       </c>
@@ -14457,7 +14558,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="261" spans="1:13" ht="15.6">
+    <row r="261" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="6" t="s">
         <v>13</v>
       </c>
@@ -14498,7 +14599,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="262" spans="1:13" ht="15.6">
+    <row r="262" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="6" t="s">
         <v>13</v>
       </c>
@@ -14539,7 +14640,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="15.6">
+    <row r="263" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="6" t="s">
         <v>13</v>
       </c>
@@ -14580,7 +14681,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="264" spans="1:13" ht="15.6">
+    <row r="264" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
         <v>13</v>
       </c>
@@ -14621,7 +14722,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="265" spans="1:13" ht="15.6">
+    <row r="265" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="6" t="s">
         <v>13</v>
       </c>
@@ -14662,7 +14763,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="15.6">
+    <row r="266" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="6" t="s">
         <v>13</v>
       </c>
@@ -14703,7 +14804,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="267" spans="1:13" ht="15.6">
+    <row r="267" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
         <v>13</v>
       </c>
@@ -14744,7 +14845,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="268" spans="1:13" ht="15.6">
+    <row r="268" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="6" t="s">
         <v>13</v>
       </c>
@@ -14785,7 +14886,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="15.6">
+    <row r="269" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="6" t="s">
         <v>13</v>
       </c>
@@ -14826,7 +14927,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="270" spans="1:13" ht="15.6">
+    <row r="270" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="6" t="s">
         <v>13</v>
       </c>
@@ -14867,7 +14968,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="271" spans="1:13" ht="15.6">
+    <row r="271" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="6" t="s">
         <v>13</v>
       </c>
@@ -14908,7 +15009,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="15.6">
+    <row r="272" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="6" t="s">
         <v>13</v>
       </c>
@@ -14949,7 +15050,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="273" spans="1:13" ht="15.6">
+    <row r="273" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="6" t="s">
         <v>13</v>
       </c>
@@ -14990,7 +15091,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="274" spans="1:13" ht="15.6">
+    <row r="274" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="6" t="s">
         <v>13</v>
       </c>
@@ -15031,7 +15132,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="15.6">
+    <row r="275" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="6" t="s">
         <v>13</v>
       </c>
@@ -15072,7 +15173,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="276" spans="1:13" ht="15.6">
+    <row r="276" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="6" t="s">
         <v>13</v>
       </c>
@@ -15113,7 +15214,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="277" spans="1:13" ht="15.6">
+    <row r="277" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="6" t="s">
         <v>13</v>
       </c>
@@ -15154,7 +15255,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="15.6">
+    <row r="278" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="6" t="s">
         <v>13</v>
       </c>
@@ -15195,7 +15296,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="279" spans="1:13" ht="15.6">
+    <row r="279" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="6" t="s">
         <v>13</v>
       </c>
@@ -15236,7 +15337,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="280" spans="1:13" ht="15.6">
+    <row r="280" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="6" t="s">
         <v>13</v>
       </c>
@@ -15277,7 +15378,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="15.6">
+    <row r="281" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="6" t="s">
         <v>13</v>
       </c>
@@ -15318,7 +15419,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="282" spans="1:13" ht="15.6">
+    <row r="282" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" s="6" t="s">
         <v>13</v>
       </c>
@@ -15359,7 +15460,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="283" spans="1:13" ht="15.6">
+    <row r="283" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="s">
         <v>13</v>
       </c>
@@ -15400,7 +15501,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="25.8">
+    <row r="284" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A284" s="6" t="s">
         <v>13</v>
       </c>
@@ -15441,7 +15542,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="285" spans="1:13" ht="15.6">
+    <row r="285" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="6" t="s">
         <v>13</v>
       </c>
@@ -15482,7 +15583,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="286" spans="1:13" ht="15.6">
+    <row r="286" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="6" t="s">
         <v>13</v>
       </c>
@@ -15523,7 +15624,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="15.6">
+    <row r="287" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="6" t="s">
         <v>13</v>
       </c>
@@ -15564,7 +15665,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="288" spans="1:13" ht="15.6">
+    <row r="288" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="6" t="s">
         <v>13</v>
       </c>
@@ -15605,7 +15706,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="289" spans="1:13" ht="15.6">
+    <row r="289" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="6" t="s">
         <v>13</v>
       </c>
@@ -15646,7 +15747,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="15.6">
+    <row r="290" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="6" t="s">
         <v>13</v>
       </c>
@@ -15687,7 +15788,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="291" spans="1:13" ht="38.700000000000003">
+    <row r="291" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A291" s="6" t="s">
         <v>13</v>
       </c>
@@ -15728,7 +15829,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="292" spans="1:13" ht="38.700000000000003">
+    <row r="292" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A292" s="6" t="s">
         <v>13</v>
       </c>
@@ -15769,7 +15870,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="90.3">
+    <row r="293" spans="1:13" ht="105" x14ac:dyDescent="0.2">
       <c r="A293" s="6" t="s">
         <v>13</v>
       </c>
@@ -15810,7 +15911,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="294" spans="1:13" ht="64.5">
+    <row r="294" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A294" s="6" t="s">
         <v>13</v>
       </c>
@@ -15851,7 +15952,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="295" spans="1:13" ht="38.700000000000003">
+    <row r="295" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A295" s="6" t="s">
         <v>13</v>
       </c>
@@ -15892,7 +15993,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="51.6">
+    <row r="296" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A296" s="6" t="s">
         <v>13</v>
       </c>
@@ -15933,7 +16034,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="297" spans="1:13" ht="15.6">
+    <row r="297" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="6" t="s">
         <v>13</v>
       </c>
@@ -15974,7 +16075,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="298" spans="1:13" ht="15.6">
+    <row r="298" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="6" t="s">
         <v>13</v>
       </c>
@@ -16015,7 +16116,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="299" spans="1:13" ht="15.6">
+    <row r="299" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" s="6" t="s">
         <v>13</v>
       </c>
@@ -16056,7 +16157,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="300" spans="1:13" ht="15.6">
+    <row r="300" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" s="6" t="s">
         <v>13</v>
       </c>
@@ -16097,7 +16198,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="301" spans="1:13" ht="15.6">
+    <row r="301" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="6" t="s">
         <v>13</v>
       </c>
@@ -16138,7 +16239,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="302" spans="1:13" ht="15.6">
+    <row r="302" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="6" t="s">
         <v>13</v>
       </c>
@@ -16179,7 +16280,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="303" spans="1:13" ht="15.6">
+    <row r="303" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="6" t="s">
         <v>13</v>
       </c>
@@ -16220,7 +16321,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="304" spans="1:13" ht="15.6">
+    <row r="304" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" s="6" t="s">
         <v>13</v>
       </c>
@@ -16261,7 +16362,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="305" spans="1:13" ht="15.6">
+    <row r="305" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A305" s="6" t="s">
         <v>13</v>
       </c>
@@ -16302,7 +16403,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="306" spans="1:13" ht="16.5" customHeight="1">
+    <row r="306" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="6" t="s">
         <v>13</v>
       </c>
@@ -16341,7 +16442,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="307" spans="1:13" ht="15.6">
+    <row r="307" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="6" t="s">
         <v>13</v>
       </c>
@@ -16382,7 +16483,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="308" spans="1:13" ht="15.6">
+    <row r="308" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="6" t="s">
         <v>13</v>
       </c>
@@ -16423,7 +16524,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="309" spans="1:13" ht="15.6">
+    <row r="309" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="6" t="s">
         <v>13</v>
       </c>
@@ -16464,7 +16565,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="310" spans="1:13" ht="15.6">
+    <row r="310" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="6" t="s">
         <v>13</v>
       </c>
@@ -16505,7 +16606,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="311" spans="1:13" ht="15.6">
+    <row r="311" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" s="6" t="s">
         <v>13</v>
       </c>
@@ -16546,7 +16647,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="312" spans="1:13" ht="64.5">
+    <row r="312" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A312" s="6" t="s">
         <v>13</v>
       </c>
@@ -16587,7 +16688,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="313" spans="1:13" ht="51.6">
+    <row r="313" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A313" s="6" t="s">
         <v>13</v>
       </c>
@@ -16628,7 +16729,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="314" spans="1:13" ht="15.6">
+    <row r="314" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="6" t="s">
         <v>13</v>
       </c>
@@ -16669,7 +16770,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="315" spans="1:13" ht="38.700000000000003">
+    <row r="315" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A315" s="6" t="s">
         <v>13</v>
       </c>
@@ -16710,7 +16811,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="316" spans="1:13" ht="51.6">
+    <row r="316" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A316" s="6" t="s">
         <v>13</v>
       </c>
@@ -16751,7 +16852,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="317" spans="1:13" ht="51.6">
+    <row r="317" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A317" s="6" t="s">
         <v>13</v>
       </c>
@@ -16792,7 +16893,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="318" spans="1:13" ht="64.5">
+    <row r="318" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A318" s="6" t="s">
         <v>13</v>
       </c>
@@ -16833,7 +16934,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="319" spans="1:13" ht="25.8">
+    <row r="319" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A319" s="6" t="s">
         <v>13</v>
       </c>
@@ -16874,7 +16975,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="320" spans="1:13" ht="38.700000000000003">
+    <row r="320" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A320" s="6" t="s">
         <v>13</v>
       </c>
@@ -16915,7 +17016,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="321" spans="1:13" ht="15.6">
+    <row r="321" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="6" t="s">
         <v>13</v>
       </c>
@@ -16956,7 +17057,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="322" spans="1:13" ht="15.6">
+    <row r="322" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="6" t="s">
         <v>13</v>
       </c>
@@ -16997,7 +17098,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="323" spans="1:13" ht="15.6">
+    <row r="323" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" s="6" t="s">
         <v>13</v>
       </c>
@@ -17038,7 +17139,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="324" spans="1:13" ht="15.6">
+    <row r="324" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A324" s="6" t="s">
         <v>13</v>
       </c>
@@ -17079,7 +17180,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="325" spans="1:13" ht="15.6">
+    <row r="325" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A325" s="6" t="s">
         <v>13</v>
       </c>
@@ -17120,7 +17221,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="326" spans="1:13" ht="15.6">
+    <row r="326" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="6" t="s">
         <v>13</v>
       </c>
@@ -17161,7 +17262,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="327" spans="1:13" ht="15.6">
+    <row r="327" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" s="6" t="s">
         <v>13</v>
       </c>
@@ -17202,7 +17303,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="328" spans="1:13" ht="15.6">
+    <row r="328" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A328" s="6" t="s">
         <v>13</v>
       </c>
@@ -17243,7 +17344,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="329" spans="1:13" ht="15.6">
+    <row r="329" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="6" t="s">
         <v>13</v>
       </c>
@@ -17284,7 +17385,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="330" spans="1:13" ht="15.6">
+    <row r="330" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" s="6" t="s">
         <v>13</v>
       </c>
@@ -17325,7 +17426,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="331" spans="1:13" ht="15.6">
+    <row r="331" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A331" s="6" t="s">
         <v>13</v>
       </c>
@@ -17366,7 +17467,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="332" spans="1:13" ht="15.6">
+    <row r="332" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A332" s="6" t="s">
         <v>13</v>
       </c>
@@ -17407,7 +17508,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="333" spans="1:13" ht="25.8">
+    <row r="333" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A333" s="6" t="s">
         <v>13</v>
       </c>
@@ -17448,7 +17549,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="334" spans="1:13" ht="15.6">
+    <row r="334" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A334" s="6" t="s">
         <v>13</v>
       </c>
@@ -17489,7 +17590,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="335" spans="1:13" ht="25.8">
+    <row r="335" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A335" s="6" t="s">
         <v>13</v>
       </c>
@@ -17530,7 +17631,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="336" spans="1:13" ht="15.6">
+    <row r="336" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A336" s="6" t="s">
         <v>13</v>
       </c>
@@ -17571,7 +17672,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="337" spans="1:13" ht="15.6">
+    <row r="337" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A337" s="6" t="s">
         <v>13</v>
       </c>
@@ -17612,7 +17713,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="338" spans="1:13" ht="15.6">
+    <row r="338" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" s="6" t="s">
         <v>13</v>
       </c>
@@ -17653,7 +17754,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="339" spans="1:13" ht="15.6">
+    <row r="339" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A339" s="6" t="s">
         <v>13</v>
       </c>
@@ -17694,7 +17795,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="340" spans="1:13" ht="15.6">
+    <row r="340" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A340" s="6" t="s">
         <v>13</v>
       </c>
@@ -17735,7 +17836,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="341" spans="1:13" ht="15.6">
+    <row r="341" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" s="6" t="s">
         <v>13</v>
       </c>
@@ -17776,7 +17877,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="342" spans="1:13" ht="15.6">
+    <row r="342" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A342" s="6" t="s">
         <v>13</v>
       </c>
@@ -17817,7 +17918,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="343" spans="1:13" ht="15.6">
+    <row r="343" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" s="6" t="s">
         <v>13</v>
       </c>
@@ -17858,7 +17959,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="344" spans="1:13" ht="25.8">
+    <row r="344" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A344" s="6" t="s">
         <v>13</v>
       </c>
@@ -17899,7 +18000,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="345" spans="1:13" ht="15.6">
+    <row r="345" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="6" t="s">
         <v>13</v>
       </c>
@@ -17940,7 +18041,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="346" spans="1:13" ht="15.6">
+    <row r="346" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" s="6" t="s">
         <v>13</v>
       </c>
@@ -17981,7 +18082,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="347" spans="1:13" ht="25.8">
+    <row r="347" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A347" s="6" t="s">
         <v>13</v>
       </c>
@@ -18022,7 +18123,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="348" spans="1:13" ht="15.6">
+    <row r="348" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="6" t="s">
         <v>13</v>
       </c>
@@ -18063,7 +18164,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="349" spans="1:13" ht="15.6">
+    <row r="349" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="6" t="s">
         <v>13</v>
       </c>
@@ -18104,7 +18205,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="350" spans="1:13" ht="15.6">
+    <row r="350" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" s="6" t="s">
         <v>13</v>
       </c>
@@ -18145,7 +18246,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="351" spans="1:13" ht="25.8">
+    <row r="351" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A351" s="6" t="s">
         <v>13</v>
       </c>
@@ -18186,7 +18287,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="352" spans="1:13" ht="15.6">
+    <row r="352" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A352" s="6" t="s">
         <v>13</v>
       </c>
@@ -18227,7 +18328,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="353" spans="1:13" ht="15.6">
+    <row r="353" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A353" s="6" t="s">
         <v>13</v>
       </c>
@@ -18268,7 +18369,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="354" spans="1:13" ht="15.6">
+    <row r="354" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A354" s="6" t="s">
         <v>13</v>
       </c>
@@ -18309,7 +18410,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="355" spans="1:13" ht="15.6">
+    <row r="355" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" s="6" t="s">
         <v>13</v>
       </c>
@@ -18350,7 +18451,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="356" spans="1:13" ht="15.6">
+    <row r="356" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A356" s="6" t="s">
         <v>13</v>
       </c>
@@ -18391,7 +18492,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="357" spans="1:13" ht="15.6">
+    <row r="357" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A357" s="6" t="s">
         <v>13</v>
       </c>
@@ -18432,7 +18533,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="358" spans="1:13" ht="15.6">
+    <row r="358" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" s="6" t="s">
         <v>13</v>
       </c>
@@ -18473,7 +18574,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="359" spans="1:13" ht="15.6">
+    <row r="359" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" s="6" t="s">
         <v>13</v>
       </c>
@@ -18514,7 +18615,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="360" spans="1:13" ht="15.6">
+    <row r="360" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A360" s="6" t="s">
         <v>13</v>
       </c>
@@ -18555,7 +18656,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="361" spans="1:13" ht="15.6">
+    <row r="361" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A361" s="6" t="s">
         <v>13</v>
       </c>
@@ -18596,7 +18697,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="362" spans="1:13" ht="15.6">
+    <row r="362" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A362" s="6" t="s">
         <v>13</v>
       </c>
@@ -18637,7 +18738,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="363" spans="1:13" ht="15.6">
+    <row r="363" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A363" s="6" t="s">
         <v>13</v>
       </c>
@@ -18678,7 +18779,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="364" spans="1:13" ht="25.8">
+    <row r="364" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A364" s="6" t="s">
         <v>13</v>
       </c>
@@ -18719,7 +18820,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="365" spans="1:13" ht="15.6">
+    <row r="365" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="6" t="s">
         <v>13</v>
       </c>
@@ -18760,7 +18861,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="366" spans="1:13" ht="15.6">
+    <row r="366" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A366" s="6" t="s">
         <v>13</v>
       </c>
@@ -18801,7 +18902,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="367" spans="1:13" ht="25.8">
+    <row r="367" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A367" s="6" t="s">
         <v>13</v>
       </c>
@@ -18842,7 +18943,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="368" spans="1:13" ht="15.6">
+    <row r="368" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A368" s="6" t="s">
         <v>13</v>
       </c>
@@ -18883,7 +18984,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="369" spans="1:13" ht="15.6">
+    <row r="369" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A369" s="6" t="s">
         <v>13</v>
       </c>
@@ -18924,7 +19025,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="370" spans="1:13" ht="15.6">
+    <row r="370" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A370" s="6" t="s">
         <v>13</v>
       </c>
@@ -18965,7 +19066,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="371" spans="1:13" ht="15.6">
+    <row r="371" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A371" s="6" t="s">
         <v>13</v>
       </c>
@@ -19006,7 +19107,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="372" spans="1:13" ht="15.6">
+    <row r="372" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="6" t="s">
         <v>13</v>
       </c>
@@ -19047,7 +19148,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="373" spans="1:13" ht="38.700000000000003">
+    <row r="373" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A373" s="6" t="s">
         <v>13</v>
       </c>
@@ -19088,7 +19189,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="374" spans="1:13" ht="38.700000000000003">
+    <row r="374" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A374" s="6" t="s">
         <v>13</v>
       </c>
@@ -19129,7 +19230,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="375" spans="1:13" ht="51.6">
+    <row r="375" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A375" s="6" t="s">
         <v>13</v>
       </c>
@@ -19170,7 +19271,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="376" spans="1:13" ht="51.6">
+    <row r="376" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A376" s="6" t="s">
         <v>13</v>
       </c>
@@ -19211,7 +19312,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="377" spans="1:13" ht="15.6">
+    <row r="377" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" s="6" t="s">
         <v>13</v>
       </c>
@@ -19252,7 +19353,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="378" spans="1:13" ht="15.6">
+    <row r="378" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A378" s="6" t="s">
         <v>13</v>
       </c>
@@ -19293,7 +19394,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="379" spans="1:13" ht="15.6">
+    <row r="379" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="6" t="s">
         <v>13</v>
       </c>
@@ -19334,7 +19435,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="380" spans="1:13" ht="15.6">
+    <row r="380" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A380" s="6" t="s">
         <v>13</v>
       </c>
@@ -19375,7 +19476,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="381" spans="1:13" ht="15.6">
+    <row r="381" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A381" s="6" t="s">
         <v>13</v>
       </c>
@@ -19416,7 +19517,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="382" spans="1:13" ht="15.6">
+    <row r="382" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A382" s="6" t="s">
         <v>13</v>
       </c>
@@ -19457,7 +19558,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="383" spans="1:13" ht="15.6">
+    <row r="383" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A383" s="6" t="s">
         <v>13</v>
       </c>
@@ -19498,7 +19599,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="384" spans="1:13" ht="15.6">
+    <row r="384" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A384" s="6" t="s">
         <v>13</v>
       </c>
@@ -19539,7 +19640,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="385" spans="1:13" ht="15.6">
+    <row r="385" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A385" s="6" t="s">
         <v>13</v>
       </c>
@@ -19580,7 +19681,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="386" spans="1:13" ht="15.6">
+    <row r="386" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A386" s="6" t="s">
         <v>13</v>
       </c>
@@ -19621,7 +19722,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="387" spans="1:13" ht="15.6">
+    <row r="387" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A387" s="6" t="s">
         <v>13</v>
       </c>
@@ -19662,7 +19763,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="388" spans="1:13" ht="15.6">
+    <row r="388" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A388" s="6" t="s">
         <v>13</v>
       </c>
@@ -19703,7 +19804,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="389" spans="1:13" ht="15.6">
+    <row r="389" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A389" s="6" t="s">
         <v>13</v>
       </c>
@@ -19744,7 +19845,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="390" spans="1:13" ht="15.6">
+    <row r="390" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A390" s="6" t="s">
         <v>13</v>
       </c>
@@ -19785,7 +19886,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="391" spans="1:13" ht="15.6">
+    <row r="391" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A391" s="6" t="s">
         <v>13</v>
       </c>
@@ -19826,7 +19927,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="392" spans="1:13" ht="15.6">
+    <row r="392" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A392" s="6" t="s">
         <v>13</v>
       </c>
@@ -19867,7 +19968,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="393" spans="1:13" ht="15.6">
+    <row r="393" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A393" s="6" t="s">
         <v>13</v>
       </c>
@@ -19908,7 +20009,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="394" spans="1:13" ht="15.6">
+    <row r="394" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A394" s="6" t="s">
         <v>13</v>
       </c>
@@ -19949,7 +20050,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="395" spans="1:13" ht="15.6">
+    <row r="395" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" s="6" t="s">
         <v>13</v>
       </c>
@@ -19990,7 +20091,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="396" spans="1:13" ht="15.6">
+    <row r="396" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A396" s="6" t="s">
         <v>13</v>
       </c>
@@ -20031,7 +20132,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="397" spans="1:13" ht="15.6">
+    <row r="397" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A397" s="6" t="s">
         <v>13</v>
       </c>
@@ -20072,7 +20173,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="398" spans="1:13" ht="15.6">
+    <row r="398" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A398" s="6" t="s">
         <v>13</v>
       </c>
@@ -20113,7 +20214,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="399" spans="1:13" ht="15.6">
+    <row r="399" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A399" s="6" t="s">
         <v>13</v>
       </c>
@@ -20154,7 +20255,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="400" spans="1:13" ht="15.6">
+    <row r="400" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A400" s="6" t="s">
         <v>13</v>
       </c>
@@ -20195,7 +20296,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="401" spans="1:13" ht="15.6">
+    <row r="401" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A401" s="6" t="s">
         <v>13</v>
       </c>
@@ -20236,7 +20337,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="402" spans="1:13" ht="15.6">
+    <row r="402" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A402" s="6" t="s">
         <v>13</v>
       </c>
@@ -20277,7 +20378,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="403" spans="1:13" ht="15.6">
+    <row r="403" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A403" s="6" t="s">
         <v>13</v>
       </c>
@@ -20318,7 +20419,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="404" spans="1:13" ht="15.6">
+    <row r="404" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A404" s="6" t="s">
         <v>13</v>
       </c>
@@ -20359,7 +20460,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="405" spans="1:13" ht="15.6">
+    <row r="405" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A405" s="6" t="s">
         <v>13</v>
       </c>
@@ -20400,7 +20501,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="406" spans="1:13" ht="15.6">
+    <row r="406" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A406" s="6" t="s">
         <v>13</v>
       </c>
@@ -20441,7 +20542,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="407" spans="1:13" ht="15.6">
+    <row r="407" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A407" s="6" t="s">
         <v>13</v>
       </c>
@@ -20482,7 +20583,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="408" spans="1:13" ht="15.6">
+    <row r="408" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A408" s="6" t="s">
         <v>13</v>
       </c>
@@ -20523,7 +20624,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="409" spans="1:13" ht="15.6">
+    <row r="409" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A409" s="6" t="s">
         <v>13</v>
       </c>
@@ -20564,7 +20665,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="410" spans="1:13" ht="15.6">
+    <row r="410" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A410" s="6" t="s">
         <v>13</v>
       </c>
@@ -20605,7 +20706,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="411" spans="1:13" ht="15.6">
+    <row r="411" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A411" s="6" t="s">
         <v>13</v>
       </c>
@@ -20646,7 +20747,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="412" spans="1:13" ht="15.6">
+    <row r="412" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A412" s="6" t="s">
         <v>13</v>
       </c>
@@ -20687,7 +20788,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="413" spans="1:13" ht="25.8">
+    <row r="413" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A413" s="6" t="s">
         <v>13</v>
       </c>
@@ -20728,7 +20829,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="414" spans="1:13" ht="15.6">
+    <row r="414" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A414" s="6" t="s">
         <v>13</v>
       </c>
@@ -20769,7 +20870,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="415" spans="1:13" ht="15.6">
+    <row r="415" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A415" s="6" t="s">
         <v>13</v>
       </c>
@@ -20810,7 +20911,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="416" spans="1:13" ht="90.3">
+    <row r="416" spans="1:13" ht="105" x14ac:dyDescent="0.2">
       <c r="A416" s="6" t="s">
         <v>13</v>
       </c>
@@ -20851,7 +20952,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="417" spans="1:13" ht="90.3">
+    <row r="417" spans="1:13" ht="105" x14ac:dyDescent="0.2">
       <c r="A417" s="6" t="s">
         <v>13</v>
       </c>
@@ -20890,6 +20991,170 @@
       </c>
       <c r="M417" s="1" t="s">
         <v>1050</v>
+      </c>
+    </row>
+    <row r="418" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A418" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D418" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E418" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F418" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G418" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H418" s="3">
+        <v>0</v>
+      </c>
+      <c r="I418" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="J418" s="3">
+        <v>13</v>
+      </c>
+      <c r="K418" s="4">
+        <v>7.8450304749260763E-2</v>
+      </c>
+      <c r="L418" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="M418" s="1" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="419" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A419" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D419" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F419" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G419" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H419" s="3">
+        <v>0</v>
+      </c>
+      <c r="I419" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="J419" s="3">
+        <v>21</v>
+      </c>
+      <c r="K419" s="4">
+        <v>0.12672741536419047</v>
+      </c>
+      <c r="L419" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="M419" s="1" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="420" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A420" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D420" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F420" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G420" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H420" s="3">
+        <v>0</v>
+      </c>
+      <c r="I420" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="J420" s="3">
+        <v>4</v>
+      </c>
+      <c r="K420" s="4">
+        <v>2.4138555307464848E-2</v>
+      </c>
+      <c r="L420" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="M420" s="1" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="421" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A421" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D421" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E421" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F421" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G421" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H421" s="3">
+        <v>0</v>
+      </c>
+      <c r="I421" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J421" s="3">
+        <v>10</v>
+      </c>
+      <c r="K421" s="4">
+        <v>6.0346388268662121E-2</v>
+      </c>
+      <c r="L421" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="M421" s="1" t="s">
+        <v>1068</v>
       </c>
     </row>
   </sheetData>
